--- a/Unity/Assets/Config/Excel/StartConfig/Release_US_Debug/StartMachineConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_US_Debug/StartMachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_US_Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEB9AA9-E6DA-4C3F-B51F-4219201EDD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C952084-AA7A-4147-B098-EEC23E7C8FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="1545" windowWidth="36840" windowHeight="20430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="3510" windowWidth="55785" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.60.150</t>
+    <t>192.168.60.234</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
     <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
